--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3749018.14242541</v>
+        <v>3746472.956352125</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>270.7773459850746</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>360.688538488851</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>271.439525616678</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>50.05665370612839</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>175.1820422378063</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.418938209067</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.8863211448341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712918</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>29.249233057517</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>55.30088041042183</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>119.8099036979372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408062</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5908209162928</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>161.3373146097481</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893622</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.223260609829</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="C5" t="n">
-        <v>829.2607436694175</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="D5" t="n">
-        <v>829.2607436694175</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>829.2607436694175</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>418.2748388798099</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1937.999789494232</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1564.534031233152</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673951</v>
+        <v>1174.39469925734</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1112.283780524079</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>743.3212635836674</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>743.3212635836674</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>357.5330109854231</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>350.5875102362197</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,16 +4808,16 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
         <v>2451.973130243322</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1875.888870760971</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1502.423112499891</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1112.283780524079</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>141.2628214977854</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>470.6912258035953</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>975.0527656697138</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.5157427476169</v>
+        <v>180.6287779911392</v>
       </c>
       <c r="C10" t="n">
-        <v>520.57955981971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.4629204073742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>697.7705053114768</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>408.6183288891565</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>180.6287779911392</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.1642075778566</v>
+        <v>180.6287779911392</v>
       </c>
     </row>
     <row r="11">
@@ -5030,10 +5030,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,28 +5115,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>634.4644740681603</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,7 +5315,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5358,19 +5358,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362678</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,7 +5762,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
         <v>1344.266747951538</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908939</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>398.4954786600648</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>197.0043242297712</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>197.0043242297712</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8456,19 +8456,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>159.7974209002381</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>94.43506344194954</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>46.24115926564446</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>63.36835372228751</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>650596.8314721036</v>
+        <v>650596.8314721035</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>650596.8314721035</v>
+        <v>650596.8314721036</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.681371069</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055057</v>
       </c>
       <c r="H2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="I2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="J2" t="n">
+        <v>766789.2697055055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="M2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="N2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="M2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="N2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="O2" t="n">
-        <v>766789.2697055055</v>
       </c>
       <c r="P2" t="n">
         <v>766789.2697055058</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,19 +26375,19 @@
         <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.815770605185866e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682704</v>
+      </c>
+      <c r="F4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>5677.536566682771</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.53656668278</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682729</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682765</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
       </c>
       <c r="P4" t="n">
         <v>5677.536566682745</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102759.6913699183</v>
+        <v>-102759.6913699181</v>
       </c>
       <c r="C6" t="n">
-        <v>487208.187844626</v>
+        <v>487208.1878446263</v>
       </c>
       <c r="D6" t="n">
-        <v>331404.3817508311</v>
+        <v>331404.3817508313</v>
       </c>
       <c r="E6" t="n">
-        <v>-111063.4880658903</v>
+        <v>-111098.225991326</v>
       </c>
       <c r="F6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="G6" t="n">
-        <v>659989.2033149156</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="H6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="I6" t="n">
-        <v>659989.2033149161</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="J6" t="n">
-        <v>483565.9841223232</v>
+        <v>483531.2461968869</v>
       </c>
       <c r="K6" t="n">
-        <v>659989.2033149158</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="L6" t="n">
-        <v>659989.2033149162</v>
+        <v>659954.4653894801</v>
       </c>
       <c r="M6" t="n">
-        <v>535780.6926068575</v>
+        <v>535745.9546814216</v>
       </c>
       <c r="N6" t="n">
-        <v>659989.2033149158</v>
+        <v>659954.4653894802</v>
       </c>
       <c r="O6" t="n">
-        <v>659989.2033149156</v>
+        <v>659954.4653894803</v>
       </c>
       <c r="P6" t="n">
-        <v>659989.203314916</v>
+        <v>659954.4653894803</v>
       </c>
     </row>
   </sheetData>
@@ -26701,13 +26701,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.737736805266179e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26917,13 +26917,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27154,13 +27154,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.519713256482333e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>98.95375469339439</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>53.09563153194398</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>77.80144310073501</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>162.0888852438905</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>73.87698536525534</v>
+        <v>237.7348617081305</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.82788288956084</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.69833220726073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>163.1438255932938</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,22 +32078,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>164.9290651940687</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>247.3820194983584</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,28 +33971,28 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>569.57231719539</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34138,10 +34138,10 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,22 +34442,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,19 +35176,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>271.6502746876386</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>88.20185826002117</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,13 +35258,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>426.9760727509455</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37786,10 +37786,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,22 +38090,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
